--- a/outputs-HGR-r202/g__Ruminococcus_C.xlsx
+++ b/outputs-HGR-r202/g__Ruminococcus_C.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,50 +442,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__Ruminococcus_C callidus</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__Ruminococcus_C callidus</t>
+          <t>2-s__Ruminococcus_C sp000433635</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__Ruminococcus_C sp000433635</t>
+          <t>3-s__Ruminococcus_C sp000437175</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__Ruminococcus_C sp000437175</t>
+          <t>4-s__Ruminococcus_C sp000437255</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-s__Ruminococcus_C sp000437255</t>
+          <t>5-s__Ruminococcus_C sp000980705</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-s__Ruminococcus_C sp000980705</t>
+          <t>6-s__Ruminococcus_C sp900545285</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7-s__Ruminococcus_C sp900545285</t>
+          <t>max</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -494,492 +489,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11171.fa</t>
+          <t>even_MAG-GUT22456.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.018532221942151e-05</v>
+        <v>0.0005965639103054679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9375646746267153</v>
+        <v>0.9720686117912787</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001665454995074222</v>
+        <v>0.002048129157736084</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001684181568893449</v>
+        <v>0.02501398226736411</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004784797234957951</v>
+        <v>9.785593449882163e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>9.182140083928173e-10</v>
+        <v>0.0001748569388169325</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05574646874592974</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.9375646746267153</v>
+        <v>0.9720686117912787</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_C sp000433635</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT22456.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.423839040250822e-05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0003472273290588466</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9725164344530215</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.888845309289377e-05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.02703113285169677</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8.832591139115128e-10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.207763946819044e-05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9725164344530215</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
           <t>s__Ruminococcus_C sp000433635</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C sp000433635</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT37378.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.481206838154749e-05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0008501319007361253</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9890710244761433</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.001013597121077721</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.009013039848361888</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.154686952770135e-09</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.390430612601405e-06</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9890710244761433</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C sp000433635</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C sp000433635</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT37758.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.043579773847997e-05</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.988605139673895</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.002158240050303851</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0001788657979376749</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.003077115470828058</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.996360722750446e-07</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.005959803573224529</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.988605139673895</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT56503.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.659696262135527e-05</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9568044276138564</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0007063087618827278</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.959387389802723e-05</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.005184833035355409</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.527379591508686e-08</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03724822447858998</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9568044276138564</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74622.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5.755580212391087e-05</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.001712487334185282</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9717150792845572</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0001990780288953764</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.02630482229986585</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.479492188631559e-10</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.097710242286856e-05</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9717150792845572</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C sp000433635</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C sp000433635</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7701.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.521426371608851e-05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9085022657235619</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.003353016647902273</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.884885734508008e-05</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.01343779973916349</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.833969110225977e-10</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.07464285398491421</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9085022657235619</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87133.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.245762171230841e-05</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.953304231185959</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.01343764652441244</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0005458285709791194</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01131634876707262</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.933147241956352e-08</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.02135342799839213</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.953304231185959</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT87851.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.276190718941792e-05</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9311451205439778</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0002115749953534695</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.815775866637362e-05</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.06219828693538724</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.844509018082622e-08</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.006344069414335532</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9311451205439778</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88142.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0001387102283097319</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9651370803646955</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.001073463618710603</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.249512678563493e-05</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01717664705754619</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.08706930241562e-08</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.01644159273325935</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9651370803646955</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88477.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.979002880776989e-05</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9612913550646119</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.001944126545078477</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.273132930511419e-05</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.007829200093020692</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.816638344727556e-07</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.02885261527534157</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.9612913550646119</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT88746.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.228595237518939e-05</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.955636690869773</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0006577043610027318</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.4593082369581e-05</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.01788191489423124</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.143213619513483e-08</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.02573679940811208</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.955636690869773</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_C callidus</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Ruminococcus_C.xlsx
+++ b/outputs-HGR-r202/g__Ruminococcus_C.xlsx
@@ -748,7 +748,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_C sp900545285</t>
+          <t>s__Ruminococcus_C sp900545285(reject)</t>
         </is>
       </c>
     </row>
